--- a/data/trans_dic/P20D1_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P20D1_R_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2946256183954395</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4675550717770855</v>
+        <v>0.4675550717770856</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3555556687193865</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08397703158532858</v>
+        <v>0.1014749443537486</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.209832845223656</v>
+        <v>0.223928160231137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1862439461799721</v>
+        <v>0.1857557131613627</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5851079324150059</v>
+        <v>0.5772226040769319</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7718471940841906</v>
+        <v>0.7683789803268505</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5540669290524545</v>
+        <v>0.5565283002159822</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.0459727269467473</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3986945458431869</v>
+        <v>0.3986945458431868</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2289264104021559</v>
+        <v>0.2289264104021558</v>
       </c>
     </row>
     <row r="8">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.214346584318275</v>
+        <v>0.2223501307248101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1158159181158971</v>
+        <v>0.1316050404716772</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2625574716000564</v>
+        <v>0.230422803410037</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5701875273152683</v>
+        <v>0.5806803301829649</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3571883935281723</v>
+        <v>0.3767210951206894</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05789498837126211</v>
+        <v>0.0578949883712621</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.5616340683105299</v>
+        <v>0.56163406831053</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.3017257565260114</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3338578727868325</v>
+        <v>0.3431300320521996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1891229182907695</v>
+        <v>0.1792882802489439</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2011568122826118</v>
+        <v>0.2053425156688041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7589431082485891</v>
+        <v>0.7755305615442946</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4748191282718331</v>
+        <v>0.469404608170435</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.1253479836745077</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5982886576154594</v>
+        <v>0.5982886576154595</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3474624489314869</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02751382243528384</v>
+        <v>0.02158850558453493</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3583900461117972</v>
+        <v>0.358438161439129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1956694662808581</v>
+        <v>0.1928988522561033</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3841256575115781</v>
+        <v>0.3749317175861342</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8387290296558186</v>
+        <v>0.8502876091341015</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5713485928129983</v>
+        <v>0.5529345670290798</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.1318916197974698</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.5108817946194919</v>
+        <v>0.5108817946194921</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.3069488380643398</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07327975728297825</v>
+        <v>0.06869791257892692</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4057408245145686</v>
+        <v>0.4010387310565193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2308808132027053</v>
+        <v>0.2329814574099188</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2392433754672622</v>
+        <v>0.2276423087725566</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6483891747095987</v>
+        <v>0.6422444611311556</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3905919229130354</v>
+        <v>0.395280514540182</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1368</v>
+        <v>1653</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1860</v>
+        <v>1985</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4685</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9533</v>
+        <v>9405</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6842</v>
+        <v>6811</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13939</v>
+        <v>14001</v>
       </c>
     </row>
     <row r="8">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3469</v>
+        <v>3598</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3613</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3943</v>
+        <v>3460</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9227</v>
+        <v>9397</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11144</v>
+        <v>11753</v>
       </c>
     </row>
     <row r="12">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5261</v>
+        <v>5407</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6157</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3379</v>
+        <v>3449</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11960</v>
+        <v>12222</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15458</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6672</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6947</v>
+        <v>6780</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13431</v>
+        <v>13617</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19481</v>
+        <v>18853</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4850</v>
+        <v>4547</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23053</v>
+        <v>22786</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>28400</v>
+        <v>28659</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15836</v>
+        <v>15068</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>36840</v>
+        <v>36491</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>48046</v>
+        <v>48623</v>
       </c>
     </row>
     <row r="24">
